--- a/hardware/bom/LANDER-BOM.xlsx
+++ b/hardware/bom/LANDER-BOM.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="0"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Amperry_POC_multidevice" sheetId="1" r:id="rId4"/>
+    <sheet name="Amperry_POC_multidevice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="Print_Titles">Amperry_POC_multidevice!$1:$1</definedName>
+    <definedName name="Print_Titles" localSheetId="0" hidden="0">Amperry_POC_multidevice!$1:$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="XZsQv1rgxa7uyoKdo8wDpVuB5skJ+lq1ZC0BPvIE5+g="/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Comment</t>
   </si>
@@ -38,16 +40,13 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Link mouser</t>
+    <t xml:space="preserve">Link mouser</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>XL6009 boost module</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">XL6009 boost module</t>
   </si>
   <si>
     <t>IC1</t>
@@ -65,7 +64,7 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>GCT (GLOBAL CONNECTOR TECHNOLOGY)</t>
+    <t xml:space="preserve">GCT (GLOBAL CONNECTOR TECHNOLOGY)</t>
   </si>
   <si>
     <t>J1</t>
@@ -77,7 +76,7 @@
     <t>SQ2318AES-T1_BE3</t>
   </si>
   <si>
-    <t>MOSFET N-CHANNEL 40V (D-S) 8 A SOT-23-3</t>
+    <t xml:space="preserve">MOSFET N-CHANNEL 40V (D-S) 8 A SOT-23-3</t>
   </si>
   <si>
     <t>Q7</t>
@@ -92,10 +91,10 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>Same Sky</t>
-  </si>
-  <si>
-    <t>S1, S6</t>
+    <t xml:space="preserve">Same Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, S6</t>
   </si>
   <si>
     <t>SLW14779443ASD</t>
@@ -104,10 +103,10 @@
     <t>NC</t>
   </si>
   <si>
-    <t>Not connected</t>
-  </si>
-  <si>
-    <t>R8, R9, R10, R11, R18, R21, R23, R24, R25</t>
+    <t xml:space="preserve">Not connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8, R9, R10, R11, R18, R21, R23, R24, R25</t>
   </si>
   <si>
     <t>res_1206</t>
@@ -128,10 +127,10 @@
     <t>EEE-FT1V561AP</t>
   </si>
   <si>
-    <t>Capacitor Polarised</t>
-  </si>
-  <si>
-    <t>C5, C10, C11, C12</t>
+    <t xml:space="preserve">Capacitor Polarised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5, C10, C11, C12</t>
   </si>
   <si>
     <t>EEE0JA152UAP</t>
@@ -140,13 +139,13 @@
     <t>DMP3007LK3-13</t>
   </si>
   <si>
-    <t>MOSFET (P-Channel)</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>Q1, Q2</t>
+    <t xml:space="preserve">MOSFET (P-Channel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodes Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1, Q2</t>
   </si>
   <si>
     <t>DMP3007LK313</t>
@@ -155,7 +154,7 @@
     <t>CYPD3177-24LQXQ</t>
   </si>
   <si>
-    <t>Integrated Circuit</t>
+    <t xml:space="preserve">Integrated Circuit</t>
   </si>
   <si>
     <t>Infineon</t>
@@ -170,13 +169,13 @@
     <t>BZT52C24-E3-08</t>
   </si>
   <si>
-    <t>Zener Diode</t>
+    <t xml:space="preserve">Zener Diode</t>
   </si>
   <si>
     <t>Vishay</t>
   </si>
   <si>
-    <t>D3, D4</t>
+    <t xml:space="preserve">D3, D4</t>
   </si>
   <si>
     <t>BZT52C24E308</t>
@@ -209,7 +208,7 @@
     <t>61300711121</t>
   </si>
   <si>
-    <t>Wurth Elektronik</t>
+    <t xml:space="preserve">Wurth Elektronik</t>
   </si>
   <si>
     <t>J2</t>
@@ -221,7 +220,7 @@
     <t>2834085-1</t>
   </si>
   <si>
-    <t>Conn PC Terminal Block RCP 2 POS 2.54mm Solder Thru-Hole 4A/Contact Box/Carton</t>
+    <t xml:space="preserve">Conn PC Terminal Block RCP 2 POS 2.54mm Solder Thru-Hole 4A/Contact Box/Carton</t>
   </si>
   <si>
     <t>P13</t>
@@ -233,7 +232,10 @@
     <t>24.243.4</t>
   </si>
   <si>
-    <t>Multicomp Pro</t>
+    <t>24.243.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicomp Pro</t>
   </si>
   <si>
     <t>J4</t>
@@ -254,7 +256,7 @@
     <t>1714955</t>
   </si>
   <si>
-    <t>Phoenix Contact</t>
+    <t xml:space="preserve">Phoenix Contact</t>
   </si>
   <si>
     <t>J5</t>
@@ -281,16 +283,16 @@
     <t>390p</t>
   </si>
   <si>
-    <t>Capacitor SMD</t>
-  </si>
-  <si>
-    <t>GCM1555C2A391JE02D</t>
-  </si>
-  <si>
-    <t>Murata Elektronik</t>
-  </si>
-  <si>
-    <t>C8, C9</t>
+    <t xml:space="preserve">Capacitor SMD</t>
+  </si>
+  <si>
+    <t>CC1206JRNPOBBN391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata Elektronik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C9</t>
   </si>
   <si>
     <t>cap_1206</t>
@@ -299,19 +301,19 @@
     <t>100n</t>
   </si>
   <si>
-    <t>KGM05AR71C104KN</t>
-  </si>
-  <si>
-    <t>KYOCERA AVX</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>KAF31BR71H104KT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYOCERA AVX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6, C13</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>Resistor SMD</t>
+    <t xml:space="preserve">Resistor SMD</t>
   </si>
   <si>
     <t>RC1206FR-7W100KL</t>
@@ -320,7 +322,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>R2, R75</t>
+    <t xml:space="preserve">R2, R75</t>
   </si>
   <si>
     <t>100</t>
@@ -341,13 +343,13 @@
     <t>R5</t>
   </si>
   <si>
-    <t>10u 10V</t>
+    <t xml:space="preserve">10u 10V</t>
   </si>
   <si>
     <t>TM8R106K010UBA</t>
   </si>
   <si>
-    <t>Vishay / Sprague</t>
+    <t xml:space="preserve">Vishay / Sprague</t>
   </si>
   <si>
     <t>C37</t>
@@ -362,13 +364,13 @@
     <t>R4</t>
   </si>
   <si>
-    <t>5.1k 1%</t>
-  </si>
-  <si>
-    <t>RC1206FR-075K1L</t>
-  </si>
-  <si>
-    <t>R12, R14, R17, R26, R27</t>
+    <t xml:space="preserve">5.1k 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCC12065K10FKEA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, R14, R17, R26, R27</t>
   </si>
   <si>
     <t>3.3u</t>
@@ -383,37 +385,40 @@
     <t>C1</t>
   </si>
   <si>
-    <t>2.4k 1%</t>
+    <t xml:space="preserve">2.4k 1%</t>
   </si>
   <si>
     <t>RC1206FR-7W2K4L</t>
   </si>
   <si>
-    <t>R6, R16, R20</t>
+    <t xml:space="preserve">R6, R16, R20</t>
   </si>
   <si>
     <t>1u</t>
   </si>
   <si>
-    <t>SMDTD04100XA00KT00</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C7</t>
-  </si>
-  <si>
-    <t>1.0k 1%</t>
+    <t>C1206C105J3RAC</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3, C4, C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0k 1%</t>
   </si>
   <si>
     <t>RC1206FR-7W1KL</t>
   </si>
   <si>
-    <t>R15, R19</t>
+    <t xml:space="preserve">R15, R19</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>R1, R3, R28</t>
+    <t xml:space="preserve">R1, R3, R28</t>
   </si>
   <si>
     <t>0R</t>
@@ -422,108 +427,86 @@
     <t>RC1206FR-130RL</t>
   </si>
   <si>
-    <t>R7, R13, R22</t>
+    <t xml:space="preserve">R7, R13, R22</t>
   </si>
   <si>
     <t>B360A-13-F</t>
   </si>
   <si>
-    <t>60V 3.0A SURFACE MOUNT SCHOTTKY BARRIER RECTIFIER</t>
+    <t xml:space="preserve">60V 3.0A SURFACE MOUNT SCHOTTKY BARRIER RECTIFIER</t>
   </si>
   <si>
     <t>DS7</t>
   </si>
   <si>
     <t>SMA-DO-214AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4 spacer +screw</t>
+  </si>
+  <si>
+    <t>coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D plastic powerbank housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring ejector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Tahoma"/>
     </font>
     <font>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10.000000"/>
       <color theme="10"/>
       <name val="Tahoma"/>
     </font>
     <font>
+      <strike/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FFD3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
-    <border/>
+  <borders count="7">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -538,108 +521,426 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </right>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </right>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -691,49 +992,44 @@
         <a:cs typeface="Tahoma"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -741,7 +1037,6 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
@@ -751,23 +1046,14 @@
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -780,13 +1066,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -796,15 +1076,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -812,7 +1090,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -820,7 +1097,6 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -829,27 +1105,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
+      <selection activeCell="E23" activeCellId="0" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="20.14"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="37.43"/>
-    <col customWidth="1" min="5" max="5" width="37.71"/>
-    <col customWidth="1" min="6" max="6" width="36.14"/>
-    <col customWidth="1" min="7" max="7" width="16.14"/>
-    <col customWidth="1" min="8" max="8" width="14.71"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" style="0" width="20.140000000000001"/>
+    <col customWidth="1" min="2" max="2" style="0" width="19.859999999999999"/>
+    <col customWidth="1" min="3" max="3" style="0" width="24.289999999999999"/>
+    <col customWidth="1" min="4" max="4" style="0" width="37.43"/>
+    <col customWidth="1" min="5" max="5" style="0" width="37.710000000000001"/>
+    <col customWidth="1" min="6" max="6" style="0" width="36.140000000000001"/>
+    <col customWidth="1" min="7" max="7" style="0" width="16.140000000000001"/>
+    <col customWidth="1" min="8" max="8" style="0" width="14.710000000000001"/>
+    <col customWidth="1" min="9" max="26" style="0" width="8.7100000000000009"/>
+    <col customWidth="1" min="27" max="16384" style="0" width="11.23"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -871,1283 +1153,901 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="9">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="25" t="s">
+      <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="23" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="C29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="C30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="31" t="s">
+      <c r="E32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="32" t="s">
+      <c r="C33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="29" t="s">
+      <c r="E33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="C34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
+      <c r="E34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="11" t="s">
+      <c r="B35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
+      <c r="F35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="40" ht="13.5" customHeight="1"/>
     <row r="41" ht="13.5" customHeight="1"/>
     <row r="42" ht="13.5" customHeight="1"/>
@@ -3113,9 +3013,9 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="G2"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>